--- a/docs/Project Management/work log.xlsx
+++ b/docs/Project Management/work log.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="460" windowWidth="33760" windowHeight="25200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="460" yWindow="360" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
     <sheet name="To Do" sheetId="4" r:id="rId2"/>
     <sheet name="sprint 1" sheetId="2" r:id="rId3"/>
     <sheet name="sprint 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Bugs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>Project Name</t>
   </si>
@@ -147,11 +148,6 @@
     <t>Search Participant Pool</t>
   </si>
   <si>
-    <t>•User signs up as a Participant or Researcher
-•User received email confirmation
-•User is redirected to complete profile</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -171,9 +167,6 @@
   </si>
   <si>
     <t>Must</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Functionality</t>
@@ -200,10 +193,6 @@
   <si>
     <t>•Create model to handle payment types
 - Payment types: One off, hourly, Voucher, Free, Other…, Currency</t>
-  </si>
-  <si>
-    <t>•Design decision: Create new model to handle payment types
-• The app is just there to initiate the transaction between the researcher and the participant. Date info. Etc is handdle outwitht he app. There may be scope at a later date to add this into the app.</t>
   </si>
   <si>
     <t>Not Started</t>
@@ -256,12 +245,166 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t xml:space="preserve">Update Dropbox folder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Design decision: Create new model to handle payment types
+• The app is just there to initiate the transaction between the researcher and the participant. Date info. Etc is handdle outwitht he app. There may be scope at a later date to add this into the app.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Design decision: keep student boolean as u may have students who are part time or students who do work as well as study?
+•18/7/15 12:24 -  Installing Django Cities Light, Receiving some errors so need to install django south 
+19/7/15:
+Trying to install django countries light and django-autocomplete-light.
+Problem with my setup, packages are installing globally and not just within the virtualenv
+Upgraded to Django V 1.8:
+- had to install formtools as it is not shipped with django anymore
+Design Decision: Make scope of project - UK (Expand later)
+20/7/15
+had to add novalidate to participant form
+auto complete works, however still having problems with filters
+was able to add auto complete languages, but will need delimiter as all is displayes in one string
+22/7/15
+Changed the experiment model to have time slots at a foreign key, timeslot is made up of a date, start time end time and no. of participants.
+Problems: 
+-datetimefield widget not working in additional formset fields.
+-dependency between related fields, i.e. country and city
+-not needing student bool field
+</t>
+  </si>
+  <si>
+    <t>22/7/15
+payment info was split into another class, dependent form setup
+- Need to setup auto complete for city field</t>
+  </si>
+  <si>
+    <t>document functionality in cards</t>
+  </si>
+  <si>
+    <t>note bugs</t>
+  </si>
+  <si>
+    <t>fix other pages</t>
+  </si>
+  <si>
+    <t>Population Script</t>
+  </si>
+  <si>
+    <t>•create population script for latest models</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>•Created population script. Difficulty of assigning timeslot and payment modules</t>
+  </si>
+  <si>
+    <t>ERD Diagram</t>
+  </si>
+  <si>
+    <t>Update Erd</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Bug Name</t>
+  </si>
+  <si>
+    <t>•Created ERD V3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Model </t>
+  </si>
+  <si>
+    <t>Deploy, Python Anywhere</t>
+  </si>
+  <si>
+    <t>deployed on python anywhere
+Had some issues with static files
+had to 'collectstaticfiles'
+also had to set link for 'PROJECT_ROOT' should make these changes on the localhost version
+getting keyError with django autocomplete</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>•Deploy site to python anywhere 
+username: pfremp
+password: a---4</t>
+  </si>
+  <si>
+    <r>
+      <t>28/7/15
+- Got initial application form working
+--Need to make it more robust: 
+only allow logged in particiapnts to apply -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ensure that terms have been accepted
+introducce pre screeen feature
+don’t allow to apply for same experiment more than once -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+check that slot isnt full
+increase counters (timeslot counter, experiment counter) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Current parts counter should only happen once app has been accepted i.e. status is confirmed.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,8 +446,30 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +486,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF538DD5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -395,11 +566,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -439,8 +611,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -773,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -830,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -839,6 +1015,9 @@
       </c>
       <c r="B9" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -950,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -976,7 +1155,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -984,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1020,6 +1199,11 @@
     <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1037,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1051,7 +1235,7 @@
     <col min="6" max="6" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="12"/>
     <col min="9" max="9" width="21.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="103" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="12"/>
     <col min="12" max="12" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="12"/>
@@ -1059,7 +1243,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="10" customFormat="1" ht="20">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>11</v>
@@ -1071,16 +1255,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>15</v>
@@ -1089,33 +1273,36 @@
         <v>22</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="120">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="405">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G2" s="12">
         <v>1</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30">
@@ -1124,22 +1311,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="75">
@@ -1148,47 +1335,50 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="12">
         <v>4</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A55" si="0">SUM(A4+1)</f>
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F5" s="12">
         <v>3</v>
       </c>
+      <c r="J5" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="12">
@@ -1196,46 +1386,49 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="150">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="12">
         <v>3</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1244,22 +1437,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1267,41 +1460,116 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B11" s="12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="90">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="12">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1418,14 +1686,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="340">
+    <row r="35" spans="1:15" ht="20">
       <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="12">
@@ -1549,6 +1815,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1572,4 +1839,60 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20">
+      <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/Project Management/work log.xlsx
+++ b/docs/Project Management/work log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="360" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="300" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t>Project Name</t>
   </si>
@@ -320,13 +320,6 @@
   </si>
   <si>
     <t>Deploy, Python Anywhere</t>
-  </si>
-  <si>
-    <t>deployed on python anywhere
-Had some issues with static files
-had to 'collectstaticfiles'
-also had to set link for 'PROJECT_ROOT' should make these changes on the localhost version
-getting keyError with django autocomplete</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -398,6 +391,35 @@
       </rPr>
       <t xml:space="preserve"> Current parts counter should only happen once app has been accepted i.e. status is confirmed.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">deployed on python anywhere
+Had some issues with static files
+had to 'collectstaticfiles'
+also had to set link for 'PROJECT_ROOT' should make these changes on the localhost version
+getting keyError with django autocomplete OR CITIES_LIGHT- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Problem seems to be to do with the pythonanywhere hosting package. Since upgrading, things seem to be working properly now. </t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment Time Slot</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/9/15
+•Timeslot not clearing when clicking 'addnew' - time not showing on experiment page, showing up as null </t>
   </si>
 </sst>
 </file>
@@ -950,7 +972,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -1221,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1428,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1545,7 +1567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="90">
+    <row r="15" spans="1:13" ht="105">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1554,13 +1576,13 @@
         <v>86</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" s="12">
         <v>4</v>
@@ -1569,13 +1591,25 @@
         <v>48</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1">

--- a/docs/Project Management/work log.xlsx
+++ b/docs/Project Management/work log.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="300" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="24280" yWindow="1860" windowWidth="17240" windowHeight="21520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" r:id="rId1"/>
-    <sheet name="To Do" sheetId="4" r:id="rId2"/>
-    <sheet name="sprint 1" sheetId="2" r:id="rId3"/>
-    <sheet name="sprint 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Bugs" sheetId="5" r:id="rId5"/>
+    <sheet name="Current Functionality" sheetId="6" r:id="rId1"/>
+    <sheet name="overview" sheetId="1" r:id="rId2"/>
+    <sheet name="To Do" sheetId="4" r:id="rId3"/>
+    <sheet name="sprint 1" sheetId="2" r:id="rId4"/>
+    <sheet name="sprint 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Bugs" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
   <si>
     <t>Project Name</t>
   </si>
@@ -421,12 +422,167 @@
     <t xml:space="preserve">30/9/15
 •Timeslot not clearing when clicking 'addnew' - time not showing on experiment page, showing up as null </t>
   </si>
+  <si>
+    <t>Homepage displaying latest experiments</t>
+  </si>
+  <si>
+    <t>Registration Form for researcher</t>
+  </si>
+  <si>
+    <t>Regitration for particiapnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researcher can view list of their active experiments:
+</t>
+  </si>
+  <si>
+    <t>Participant can view list of their active experiments</t>
+  </si>
+  <si>
+    <t>Researcher has a counter showing how many experiments they have</t>
+  </si>
+  <si>
+    <t>participant has counter for 'pending' and 'confirmed' applications</t>
+  </si>
+  <si>
+    <t>researcher can view experiment history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">particiapnt can view experiment history </t>
+  </si>
+  <si>
+    <t>Name of function</t>
+  </si>
+  <si>
+    <t>related view</t>
+  </si>
+  <si>
+    <t>each experiment has a counter showing how many participants they have</t>
+  </si>
+  <si>
+    <t>researchers can process applications by updating the status to accept or reject particiapnts</t>
+  </si>
+  <si>
+    <t>if the experiment is full participants wont be able to apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page displaying all experiments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">single page view for experiment
+-Paricipant can share experiment externally
+-Participant can view location of experiment on map
+-Particiapnt can apply for experiment
+-Participant can view payment details </t>
+  </si>
+  <si>
+    <t>Researcher can add experiment 
+-experiment can have multiple timeslots</t>
+  </si>
+  <si>
+    <t>particiapnt can update their details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">researcher can update their details </t>
+  </si>
+  <si>
+    <t>researcher can delete experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">participant can withdraw application to experiment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">researcher can end experiment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">researcher can reactivate an experiment </t>
+  </si>
+  <si>
+    <t>researcher has a profile page that particiapnts can view</t>
+  </si>
+  <si>
+    <t>allow researcher to edit experiment</t>
+  </si>
+  <si>
+    <t>fix problems with languages not saving</t>
+  </si>
+  <si>
+    <t>fix problem with timeslot:
+-not displaying properly
+-not saving properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix google login, make sure users are properly redirected
+-create function that can be used to check user type at all times. </t>
+  </si>
+  <si>
+    <t>make sure pages are properly restricted for particular users</t>
+  </si>
+  <si>
+    <t>setup email functionality for allauth</t>
+  </si>
+  <si>
+    <t>setup matching feature
+-par CAN FILTER EXPERIMENTS TO MATCH THEIR PRE
+-researcher can only display exp to pre match</t>
+  </si>
+  <si>
+    <t>url design</t>
+  </si>
+  <si>
+    <t>template names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refactoring </t>
+  </si>
+  <si>
+    <t>all auth page stylings</t>
+  </si>
+  <si>
+    <t>hide applied for experiments or show as applied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google login, no user profile </t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>works now</t>
+  </si>
+  <si>
+    <t>experiment wishlist</t>
+  </si>
+  <si>
+    <t>only allow edu domains to signup</t>
+  </si>
+  <si>
+    <t>show if an experiment has been edited</t>
+  </si>
+  <si>
+    <t>what happends if I manually sign up with google but when I return I want to use the google login ?</t>
+  </si>
+  <si>
+    <t>how can a user close their account?</t>
+  </si>
+  <si>
+    <t>what has to be populated for this to work properly?</t>
+  </si>
+  <si>
+    <t>Form validation, show units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update user when exp has been changed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">link username to profile </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +644,11 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -588,12 +749,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -636,9 +802,23 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -969,6 +1149,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75">
+      <c r="A15" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45">
+      <c r="A32" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="45">
+      <c r="A35" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1149,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1239,11 +1687,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+    <sheetView topLeftCell="E5" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -1858,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1875,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>

--- a/docs/Project Management/work log.xlsx
+++ b/docs/Project Management/work log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="24280" yWindow="1860" windowWidth="17240" windowHeight="21520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27720" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Current Functionality" sheetId="6" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="sprint 1" sheetId="2" r:id="rId4"/>
     <sheet name="sprint 2" sheetId="3" r:id="rId5"/>
     <sheet name="Bugs" sheetId="5" r:id="rId6"/>
+    <sheet name="universities" sheetId="7" r:id="rId7"/>
+    <sheet name="languages" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="417">
   <si>
     <t>Project Name</t>
   </si>
@@ -577,12 +579,847 @@
   <si>
     <t xml:space="preserve">link username to profile </t>
   </si>
+  <si>
+    <t>calendar, manage experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude english from language searches </t>
+  </si>
+  <si>
+    <t>404 page</t>
+  </si>
+  <si>
+    <t>Change coounters from none out to 10 to 0 out of 10</t>
+  </si>
+  <si>
+    <t>make all researcher usernames lowercase</t>
+  </si>
+  <si>
+    <t>prevent old dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prevent timeslots that don’t match the length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">populate more languages </t>
+  </si>
+  <si>
+    <t>additional info for experiment</t>
+  </si>
+  <si>
+    <t>httl web url in form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp form payment explained </t>
+  </si>
+  <si>
+    <t>check languages for student</t>
+  </si>
+  <si>
+    <t>experiment name label to experiment name</t>
+  </si>
+  <si>
+    <t>exp - add timeslot - change label from "add another item"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark exp as ended </t>
+  </si>
+  <si>
+    <t>testing errors as opposed to assertions</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Aberystwyth University</t>
+  </si>
+  <si>
+    <t>Anglia Ruskin University</t>
+  </si>
+  <si>
+    <t>Arts University Bournemouth</t>
+  </si>
+  <si>
+    <t>Aston University</t>
+  </si>
+  <si>
+    <t>Bangor University</t>
+  </si>
+  <si>
+    <t>Bath Spa University</t>
+  </si>
+  <si>
+    <t>Birmingham City University</t>
+  </si>
+  <si>
+    <t>Birmingham Conservatoire</t>
+  </si>
+  <si>
+    <t>Bishop Grosseteste University</t>
+  </si>
+  <si>
+    <t>Bournemouth University</t>
+  </si>
+  <si>
+    <t>BPP University</t>
+  </si>
+  <si>
+    <t>Brunel University</t>
+  </si>
+  <si>
+    <t>Buckinghamshire New University</t>
+  </si>
+  <si>
+    <t>Canterbury Christ Church University</t>
+  </si>
+  <si>
+    <t>Cardiff Metropolitan University</t>
+  </si>
+  <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
+    <t>City University</t>
+  </si>
+  <si>
+    <t>Conservatoire for Dance and Drama</t>
+  </si>
+  <si>
+    <t>Coventry University</t>
+  </si>
+  <si>
+    <t>Cranfield University</t>
+  </si>
+  <si>
+    <t>De Montfort University</t>
+  </si>
+  <si>
+    <t>Edge Hill University</t>
+  </si>
+  <si>
+    <t>Edinburgh Napier University</t>
+  </si>
+  <si>
+    <t>Falmouth University</t>
+  </si>
+  <si>
+    <t>Glasgow Caledonian University</t>
+  </si>
+  <si>
+    <t>Glasgow School of Art</t>
+  </si>
+  <si>
+    <t>Glyndŵr University</t>
+  </si>
+  <si>
+    <t>Guildhall School of Music and Drama</t>
+  </si>
+  <si>
+    <t>Harper Adams University</t>
+  </si>
+  <si>
+    <t>Heriot-Watt University</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>Kingston University</t>
+  </si>
+  <si>
+    <t>Leeds Beckett University</t>
+  </si>
+  <si>
+    <t>Leeds College of Art</t>
+  </si>
+  <si>
+    <t>Leeds Trinity University</t>
+  </si>
+  <si>
+    <t>Liverpool Hope University</t>
+  </si>
+  <si>
+    <t>Liverpool John Moores University</t>
+  </si>
+  <si>
+    <t>London Metropolitan University</t>
+  </si>
+  <si>
+    <t>London South Bank University</t>
+  </si>
+  <si>
+    <t>Loughborough University</t>
+  </si>
+  <si>
+    <t>Manchester Metropolitan University</t>
+  </si>
+  <si>
+    <t>Middlesex University</t>
+  </si>
+  <si>
+    <t>Newman University</t>
+  </si>
+  <si>
+    <t>Northumbria University</t>
+  </si>
+  <si>
+    <t>Norwich University of the Arts</t>
+  </si>
+  <si>
+    <t>Nottingham Trent University</t>
+  </si>
+  <si>
+    <t>Open University</t>
+  </si>
+  <si>
+    <t>Oxford Brookes University</t>
+  </si>
+  <si>
+    <t>Queen Margaret University</t>
+  </si>
+  <si>
+    <t>Queen's University Belfast</t>
+  </si>
+  <si>
+    <t>Ravensbourne</t>
+  </si>
+  <si>
+    <t>Robert Gordon University</t>
+  </si>
+  <si>
+    <t>Roehampton University</t>
+  </si>
+  <si>
+    <t>Rose Bruford College</t>
+  </si>
+  <si>
+    <t>Royal Agricultural University</t>
+  </si>
+  <si>
+    <t>Royal College of Art</t>
+  </si>
+  <si>
+    <t>Royal College of Music</t>
+  </si>
+  <si>
+    <t>Royal Conservatoire of Scotland</t>
+  </si>
+  <si>
+    <t>Royal Northern College of Music</t>
+  </si>
+  <si>
+    <t>Sheffield Hallam University</t>
+  </si>
+  <si>
+    <t>Southampton Solent University</t>
+  </si>
+  <si>
+    <t>SRUC</t>
+  </si>
+  <si>
+    <t>St Mary's University, Twickenham</t>
+  </si>
+  <si>
+    <t>Staffordshire University</t>
+  </si>
+  <si>
+    <t>Stranmillis University College</t>
+  </si>
+  <si>
+    <t>Swansea Metropolitan University</t>
+  </si>
+  <si>
+    <t>Swansea University</t>
+  </si>
+  <si>
+    <t>Teesside University</t>
+  </si>
+  <si>
+    <t>The Liverpool Institute for Performing Arts</t>
+  </si>
+  <si>
+    <t>The University of St Andrews</t>
+  </si>
+  <si>
+    <t>Trinity Laban Conservatoire of Music and Dance</t>
+  </si>
+  <si>
+    <t>Ulster University</t>
+  </si>
+  <si>
+    <t>University Campus Suffolk</t>
+  </si>
+  <si>
+    <t>University College Birmingham</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t>University for the Creative Arts</t>
+  </si>
+  <si>
+    <t>University of Aberdeen</t>
+  </si>
+  <si>
+    <t>University of Abertay Dundee</t>
+  </si>
+  <si>
+    <t>University of Bath</t>
+  </si>
+  <si>
+    <t>University of Bedfordshire</t>
+  </si>
+  <si>
+    <t>University of Birmingham</t>
+  </si>
+  <si>
+    <t>University of Bolton</t>
+  </si>
+  <si>
+    <t>University of Bradford</t>
+  </si>
+  <si>
+    <t>University of Brighton</t>
+  </si>
+  <si>
+    <t>University of Bristol</t>
+  </si>
+  <si>
+    <t>University of Buckingham</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>University of Central Lancashire</t>
+  </si>
+  <si>
+    <t>University of Chester</t>
+  </si>
+  <si>
+    <t>University of Chichester</t>
+  </si>
+  <si>
+    <t>University of Cumbria</t>
+  </si>
+  <si>
+    <t>University of Derby</t>
+  </si>
+  <si>
+    <t>University of Dundee</t>
+  </si>
+  <si>
+    <t>University of Durham</t>
+  </si>
+  <si>
+    <t>University of East Anglia</t>
+  </si>
+  <si>
+    <t>University of East London</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>University of Essex</t>
+  </si>
+  <si>
+    <t>University of Exeter</t>
+  </si>
+  <si>
+    <t>University of Glasgow</t>
+  </si>
+  <si>
+    <t>University of Gloucestershire</t>
+  </si>
+  <si>
+    <t>University of Greenwich</t>
+  </si>
+  <si>
+    <t>University of Hertfordshire</t>
+  </si>
+  <si>
+    <t>University of Huddersfield</t>
+  </si>
+  <si>
+    <t>University of Hull</t>
+  </si>
+  <si>
+    <t>University of Keele</t>
+  </si>
+  <si>
+    <t>University of Kent</t>
+  </si>
+  <si>
+    <t>University of Lancaster</t>
+  </si>
+  <si>
+    <t>University of Leeds</t>
+  </si>
+  <si>
+    <t>University of Leicester</t>
+  </si>
+  <si>
+    <t>University of Lincoln</t>
+  </si>
+  <si>
+    <t>University of Liverpool</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>University of Newcastle</t>
+  </si>
+  <si>
+    <t>University of Northampton</t>
+  </si>
+  <si>
+    <t>University of Nottingham</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>University of Plymouth</t>
+  </si>
+  <si>
+    <t>University of Portsmouth</t>
+  </si>
+  <si>
+    <t>University of Reading</t>
+  </si>
+  <si>
+    <t>University of Salford</t>
+  </si>
+  <si>
+    <t>University of Sheffield</t>
+  </si>
+  <si>
+    <t>University of South Wales</t>
+  </si>
+  <si>
+    <t>University of Southampton</t>
+  </si>
+  <si>
+    <t>University of St Mark and St John</t>
+  </si>
+  <si>
+    <t>University of Stirling</t>
+  </si>
+  <si>
+    <t>University of Strathclyde</t>
+  </si>
+  <si>
+    <t>University of Sunderland</t>
+  </si>
+  <si>
+    <t>University of Surrey</t>
+  </si>
+  <si>
+    <t>University of Sussex</t>
+  </si>
+  <si>
+    <t>University of the Arts London</t>
+  </si>
+  <si>
+    <t>University of the Highlands and Islands</t>
+  </si>
+  <si>
+    <t>University of the West of England</t>
+  </si>
+  <si>
+    <t>University of the West of Scotland</t>
+  </si>
+  <si>
+    <t>University of Wales, Trinity Saint David</t>
+  </si>
+  <si>
+    <t>University of Warwick</t>
+  </si>
+  <si>
+    <t>University of West London</t>
+  </si>
+  <si>
+    <t>University of Westminster</t>
+  </si>
+  <si>
+    <t>University of Winchester</t>
+  </si>
+  <si>
+    <t>University of Wolverhampton</t>
+  </si>
+  <si>
+    <t>University of Worcester</t>
+  </si>
+  <si>
+    <t>University of York</t>
+  </si>
+  <si>
+    <t>Writtle College</t>
+  </si>
+  <si>
+    <t>York St John University</t>
+  </si>
+  <si>
+    <t>Birkbeck College</t>
+  </si>
+  <si>
+    <t>Central School of Speech and Drama</t>
+  </si>
+  <si>
+    <t>Courtauld Institute of Art</t>
+  </si>
+  <si>
+    <t>Goldsmiths College</t>
+  </si>
+  <si>
+    <t>Heythrop College</t>
+  </si>
+  <si>
+    <t>Institute of Cancer Research</t>
+  </si>
+  <si>
+    <t>Institute of Education</t>
+  </si>
+  <si>
+    <t>King's College London</t>
+  </si>
+  <si>
+    <t>London Business School</t>
+  </si>
+  <si>
+    <t>London School of Economics</t>
+  </si>
+  <si>
+    <t>London School of Hygiene and Tropical Medicine</t>
+  </si>
+  <si>
+    <t>Queen Mary, University of London</t>
+  </si>
+  <si>
+    <t>Royal Academy of Music</t>
+  </si>
+  <si>
+    <t>Royal Holloway, University of London</t>
+  </si>
+  <si>
+    <t>Royal Veterinary College</t>
+  </si>
+  <si>
+    <t>School of Oriental and African Studies</t>
+  </si>
+  <si>
+    <t>St George's Hospital Medical School</t>
+  </si>
+  <si>
+    <t>UCL School of Pharmacy</t>
+  </si>
+  <si>
+    <r>
+      <t>University of London</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+      </rPr>
+      <t>[a]</t>
+    </r>
+  </si>
+  <si>
+    <t>Akan</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Assamese</t>
+  </si>
+  <si>
+    <t>Awadhi</t>
+  </si>
+  <si>
+    <t>Azerbaijani</t>
+  </si>
+  <si>
+    <t>Balochi</t>
+  </si>
+  <si>
+    <t>Belarusian</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Bhojpuri</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Cantonese</t>
+  </si>
+  <si>
+    <t>Cebuano</t>
+  </si>
+  <si>
+    <t>Chewa</t>
+  </si>
+  <si>
+    <t>Chhattisgarhi</t>
+  </si>
+  <si>
+    <t>Chittagonian</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Deccan</t>
+  </si>
+  <si>
+    <t>Dhundhari</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Fula</t>
+  </si>
+  <si>
+    <t>Gan</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Haitian Creole</t>
+  </si>
+  <si>
+    <t>Hakka</t>
+  </si>
+  <si>
+    <t>Haryanvi</t>
+  </si>
+  <si>
+    <t>Hausa</t>
+  </si>
+  <si>
+    <t>Hiligaynon</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Hmong</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Igbo</t>
+  </si>
+  <si>
+    <t>Ilokano</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Javanese</t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>Kinyarwanda</t>
+  </si>
+  <si>
+    <t>Kirundi</t>
+  </si>
+  <si>
+    <t>Konkani</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Kurdish</t>
+  </si>
+  <si>
+    <t>Madurese</t>
+  </si>
+  <si>
+    <t>Magahi</t>
+  </si>
+  <si>
+    <t>Maithili</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>Malay/Indonesian</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Marwari</t>
+  </si>
+  <si>
+    <t>Min Bei</t>
+  </si>
+  <si>
+    <t>Min Dong</t>
+  </si>
+  <si>
+    <t>Min Nan</t>
+  </si>
+  <si>
+    <t>Mossi</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Odia</t>
+  </si>
+  <si>
+    <t>Oromo</t>
+  </si>
+  <si>
+    <t>Pashto</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>Quechua</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Saraiki</t>
+  </si>
+  <si>
+    <t>Serbo-Croatian</t>
+  </si>
+  <si>
+    <t>Shona</t>
+  </si>
+  <si>
+    <t>Sindhi</t>
+  </si>
+  <si>
+    <t>Sinhalese</t>
+  </si>
+  <si>
+    <t>Somali</t>
+  </si>
+  <si>
+    <t>Sundanese</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Sylheti</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Turkmen</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Uyghur</t>
+  </si>
+  <si>
+    <t>Uzbek</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Xhosa</t>
+  </si>
+  <si>
+    <t>Xiang</t>
+  </si>
+  <si>
+    <t>Yoruba</t>
+  </si>
+  <si>
+    <t>Zhuang</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,6 +1487,25 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="5">
@@ -759,7 +1615,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -811,6 +1667,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1149,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1390,18 +2249,98 @@
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="20" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="20" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="20" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2377,4 +3316,2377 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B164"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="47.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="21" t="str">
+        <f>CONCATENATE("'",A2,"',")</f>
+        <v>'Aberystwyth University',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="21" t="str">
+        <f t="shared" ref="B3:B66" si="0">CONCATENATE("'",A3,"',")</f>
+        <v>'Anglia Ruskin University',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Arts University Bournemouth',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Aston University',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bangor University',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bath Spa University',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Birkbeck College',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Birmingham City University',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Birmingham Conservatoire',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bishop Grosseteste University',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bournemouth University',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'BPP University',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Brunel University',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Buckinghamshire New University',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Canterbury Christ Church University',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cardiff Metropolitan University',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cardiff University',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Central School of Speech and Drama',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'City University',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Conservatoire for Dance and Drama',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Courtauld Institute of Art',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Coventry University',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cranfield University',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'De Montfort University',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Edge Hill University',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Edinburgh Napier University',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Falmouth University',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Glasgow Caledonian University',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Glasgow School of Art',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Glyndŵr University',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B32" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Goldsmiths College',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Guildhall School of Music and Drama',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Harper Adams University',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Heriot-Watt University',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Heythrop College',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Imperial College London',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B38" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Institute of Cancer Research',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Institute of Education',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'King's College London',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kingston University',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Leeds Beckett University',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Leeds College of Art',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Leeds Trinity University',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Liverpool Hope University',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Liverpool John Moores University',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'London Business School',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'London Metropolitan University',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'London School of Economics',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'London School of Hygiene and Tropical Medicine',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'London South Bank University',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Loughborough University',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Manchester Metropolitan University',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Middlesex University',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Newman University',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Northumbria University',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Norwich University of the Arts',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Nottingham Trent University',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Open University',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Oxford Brookes University',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Queen Margaret University',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Queen Mary, University of London',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Queen's University Belfast',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ravensbourne',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Robert Gordon University',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Roehampton University',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="21" t="str">
+        <f t="shared" ref="B67:B71" si="1">CONCATENATE("'",A67,"',")</f>
+        <v>'Rose Bruford College',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="B68" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>'Royal Academy of Music',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>'Royal Agricultural University',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>'Royal College of Art',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>'Royal College of Music',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="21" t="str">
+        <f>CONCATENATE("'",A72,"',")</f>
+        <v>'Royal Conservatoire of Scotland',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B73" s="21" t="str">
+        <f t="shared" ref="B73:B125" si="2">CONCATENATE("'",A73,"',")</f>
+        <v>'Royal Holloway, University of London',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Royal Northern College of Music',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Royal Veterinary College',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'School of Oriental and African Studies',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Sheffield Hallam University',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Southampton Solent University',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'SRUC',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'St George's Hospital Medical School',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'St Mary's University, Twickenham',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Staffordshire University',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Stranmillis University College',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Swansea Metropolitan University',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Swansea University',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Teesside University',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'The Liverpool Institute for Performing Arts',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'The University of St Andrews',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Trinity Laban Conservatoire of Music and Dance',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'UCL School of Pharmacy',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Ulster University',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University Campus Suffolk',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University College Birmingham',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University College London',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University for the Creative Arts',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="B96" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Aberdeen',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B97" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Abertay Dundee',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B98" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Bath',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Bedfordshire',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Birmingham',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Bolton',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Bradford',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Brighton',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Bristol',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B105" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Buckingham',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Cambridge',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Central Lancashire',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Chester',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Chichester',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Cumbria',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Derby',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Dundee',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Durham',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of East Anglia',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of East London',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Edinburgh',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Essex',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Exeter',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Glasgow',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Gloucestershire',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Greenwich',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Hertfordshire',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Huddersfield',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Hull',</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>'University of Keele',</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="21" t="str">
+        <f>CONCATENATE("'",A126,"',")</f>
+        <v>'University of Kent',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="21" t="str">
+        <f t="shared" ref="B127:B164" si="3">CONCATENATE("'",A127,"',")</f>
+        <v>'University of Lancaster',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Leeds',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Leicester',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Lincoln',</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Liverpool',</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B132" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of London[a]',</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Manchester',</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B134" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Newcastle',</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Northampton',</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Nottingham',</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Oxford',</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Plymouth',</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Portsmouth',</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Reading',</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Salford',</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Sheffield',</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B143" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of South Wales',</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Southampton',</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of St Mark and St John',</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Stirling',</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Strathclyde',</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B148" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Sunderland',</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Surrey',</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Sussex',</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of the Arts London',</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of the Highlands and Islands',</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of the West of England',</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B154" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of the West of Scotland',</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Wales, Trinity Saint David',</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B156" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Warwick',</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of West London',</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B158" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Westminster',</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Winchester',</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Wolverhampton',</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="B161" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of Worcester',</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B162" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'University of York',</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B163" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'Writtle College',</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>'York St John University',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B95" sqref="B1:B95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="str">
+        <f t="shared" ref="B1:B64" si="0">CONCATENATE("'",A1,"',")</f>
+        <v>'Akan',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" si="0"/>
+        <v>'Amharic',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'Arabic',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Assamese',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Awadhi',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Azerbaijani',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'Balochi',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Belarusian',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bengali',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Bhojpuri',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>332</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'Burmese',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cantonese',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cebuano',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Chewa',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Chhattisgarhi',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'Chittagonian',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'Czech',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'Deccan',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'Dhundhari',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'Dutch',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fula',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'Gan',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'Greek',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'Gujarati',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Haitian Creole',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hakka',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>348</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Haryanvi',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hausa',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hiligaynon',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hindi',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hmong',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hungarian',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'Igbo',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ilokano',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>356</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'Italian',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>'Japanese',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>'Javanese',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>'Jin',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kannada',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kazakh',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>'Khmer',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>363</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kinyarwanda',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>364</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kirundi',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>365</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>'Konkani',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>366</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>'Korean',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kurdish',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>'Madurese',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>'Magahi',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>'Maithili',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>371</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>'Malagasy',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>372</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>'Malay/Indonesian',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>'Malayalam',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>'Marathi',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>'Marwari',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>'Min Bei',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>'Min Dong',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>378</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>'Min Nan',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>379</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mossi',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>380</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>'Nepali',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>'Odia',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>'Oromo',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>383</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>'Pashto',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>'Persian',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>385</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>'Polish',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>386</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" ref="B65:B94" si="1">CONCATENATE("'",A65,"',")</f>
+        <v>'Portuguese',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>'Punjabi',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>'Quechua',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>389</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>'Romanian',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>390</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>'Russian',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>391</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>'Saraiki',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>392</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>'Serbo-Croatian',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>393</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>'Shona',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>394</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sindhi',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>395</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sinhalese',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>'Somali',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sundanese',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>398</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>'Swedish',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>399</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>'Sylheti',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>400</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tagalog',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>401</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>'Tamil',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>402</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>'Telugu',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>403</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>'Thai',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>404</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>'Turkish',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>405</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>'Turkmen',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>406</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>'Ukrainian',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>407</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>'Urdu',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>408</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>'Uyghur',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>'Uzbek',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>410</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>'Vietnamese',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>411</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>'Wu',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>412</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>'Xhosa',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>413</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>'Xiang',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>414</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>'Yoruba',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>415</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>'Zhuang',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>416</v>
+      </c>
+      <c r="B95" t="str">
+        <f>CONCATENATE("'",A95,"',")</f>
+        <v>'Zulu',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/Project Management/work log.xlsx
+++ b/docs/Project Management/work log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="27720" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Current Functionality" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="419">
   <si>
     <t>Project Name</t>
   </si>
@@ -1414,12 +1414,18 @@
   <si>
     <t>Zulu</t>
   </si>
+  <si>
+    <t xml:space="preserve">not all experiments are showing for participants </t>
+  </si>
+  <si>
+    <t>Languages' object has no attribute 'lower'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1506,6 +1512,11 @@
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1615,7 +1626,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1670,6 +1681,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3264,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3306,6 +3318,14 @@
     <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="21">
+      <c r="C3" s="24" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B95" sqref="B1:B95"/>
     </sheetView>
   </sheetViews>

--- a/docs/Project Management/work log.xlsx
+++ b/docs/Project Management/work log.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickfrempong/Developer/masters/masters_proj/docs/Project Management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="25840" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Current Functionality" sheetId="6" r:id="rId1"/>
@@ -15,8 +20,9 @@
     <sheet name="Bugs" sheetId="5" r:id="rId6"/>
     <sheet name="universities" sheetId="7" r:id="rId7"/>
     <sheet name="languages" sheetId="8" r:id="rId8"/>
+    <sheet name="dissertation" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1695,6 +1701,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2026,13 +2037,13 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -2049,122 +2060,122 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75">
+    <row r="15" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>119</v>
       </c>
@@ -2172,7 +2183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45">
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>120</v>
       </c>
@@ -2180,177 +2191,177 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="45">
+    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="45">
+    <row r="35" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>157</v>
       </c>
@@ -2358,11 +2369,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2374,7 +2380,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -2382,7 +2388,7 @@
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2398,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2406,7 +2412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" thickBot="1">
+    <row r="4" spans="1:3" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -2414,12 +2420,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="10" customFormat="1">
+    <row r="8" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2441,23 +2447,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2465,43 +2471,43 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -2509,27 +2515,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
@@ -2540,11 +2546,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2556,13 +2557,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
@@ -2587,42 +2588,42 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2630,11 +2631,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2642,11 +2638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="22.5" style="12" bestFit="1" customWidth="1"/>
@@ -2662,7 +2658,7 @@
     <col min="13" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="20">
+    <row r="1" spans="1:13" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>44</v>
       </c>
@@ -2700,7 +2696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="405">
+    <row r="2" spans="1:13" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <f>SUM(A2+1)</f>
         <v>2</v>
@@ -2750,7 +2746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75">
+    <row r="4" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <f>SUM(A3+1)</f>
         <v>3</v>
@@ -2777,7 +2773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60">
+    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <f t="shared" ref="A5:A55" si="0">SUM(A4+1)</f>
         <v>4</v>
@@ -2801,7 +2797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2825,7 +2821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="150">
+    <row r="7" spans="1:13" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2852,7 +2848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2876,7 +2872,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2903,7 +2899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2930,7 +2926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2939,7 +2935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2948,7 +2944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2957,7 +2953,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2966,7 +2962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="105">
+    <row r="15" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2993,7 +2989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30">
+    <row r="16" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3011,236 +3007,236 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="20">
+    <row r="35" spans="1:15" ht="21" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3249,11 +3245,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3263,14 +3254,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3278,11 +3264,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -3292,7 +3278,7 @@
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>82</v>
       </c>
@@ -3315,7 +3301,7 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3323,18 +3309,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21">
+    <row r="3" spans="1:15" ht="23" x14ac:dyDescent="0.25">
       <c r="C3" s="24" t="s">
         <v>418</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3346,18 +3327,18 @@
       <selection activeCell="B2" sqref="B2:B164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>159</v>
       </c>
@@ -3366,7 +3347,7 @@
         <v>'Aberystwyth University',</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>160</v>
       </c>
@@ -3375,7 +3356,7 @@
         <v>'Anglia Ruskin University',</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>161</v>
       </c>
@@ -3384,7 +3365,7 @@
         <v>'Arts University Bournemouth',</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>162</v>
       </c>
@@ -3393,7 +3374,7 @@
         <v>'Aston University',</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>163</v>
       </c>
@@ -3402,7 +3383,7 @@
         <v>'Bangor University',</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>164</v>
       </c>
@@ -3411,7 +3392,7 @@
         <v>'Bath Spa University',</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>303</v>
       </c>
@@ -3420,7 +3401,7 @@
         <v>'Birkbeck College',</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>165</v>
       </c>
@@ -3429,7 +3410,7 @@
         <v>'Birmingham City University',</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>166</v>
       </c>
@@ -3438,7 +3419,7 @@
         <v>'Birmingham Conservatoire',</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>167</v>
       </c>
@@ -3447,7 +3428,7 @@
         <v>'Bishop Grosseteste University',</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>168</v>
       </c>
@@ -3456,7 +3437,7 @@
         <v>'Bournemouth University',</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>169</v>
       </c>
@@ -3465,7 +3446,7 @@
         <v>'BPP University',</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>170</v>
       </c>
@@ -3474,7 +3455,7 @@
         <v>'Brunel University',</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>171</v>
       </c>
@@ -3483,7 +3464,7 @@
         <v>'Buckinghamshire New University',</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>172</v>
       </c>
@@ -3492,7 +3473,7 @@
         <v>'Canterbury Christ Church University',</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>173</v>
       </c>
@@ -3501,7 +3482,7 @@
         <v>'Cardiff Metropolitan University',</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>174</v>
       </c>
@@ -3510,7 +3491,7 @@
         <v>'Cardiff University',</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>304</v>
       </c>
@@ -3519,7 +3500,7 @@
         <v>'Central School of Speech and Drama',</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>175</v>
       </c>
@@ -3528,7 +3509,7 @@
         <v>'City University',</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
         <v>176</v>
       </c>
@@ -3537,7 +3518,7 @@
         <v>'Conservatoire for Dance and Drama',</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>305</v>
       </c>
@@ -3546,7 +3527,7 @@
         <v>'Courtauld Institute of Art',</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>177</v>
       </c>
@@ -3555,7 +3536,7 @@
         <v>'Coventry University',</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>178</v>
       </c>
@@ -3564,7 +3545,7 @@
         <v>'Cranfield University',</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>179</v>
       </c>
@@ -3573,7 +3554,7 @@
         <v>'De Montfort University',</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>180</v>
       </c>
@@ -3582,7 +3563,7 @@
         <v>'Edge Hill University',</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>181</v>
       </c>
@@ -3591,7 +3572,7 @@
         <v>'Edinburgh Napier University',</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>182</v>
       </c>
@@ -3600,7 +3581,7 @@
         <v>'Falmouth University',</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>183</v>
       </c>
@@ -3609,7 +3590,7 @@
         <v>'Glasgow Caledonian University',</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>184</v>
       </c>
@@ -3618,7 +3599,7 @@
         <v>'Glasgow School of Art',</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>185</v>
       </c>
@@ -3627,7 +3608,7 @@
         <v>'Glyndŵr University',</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>306</v>
       </c>
@@ -3636,7 +3617,7 @@
         <v>'Goldsmiths College',</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>186</v>
       </c>
@@ -3645,7 +3626,7 @@
         <v>'Guildhall School of Music and Drama',</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>187</v>
       </c>
@@ -3654,7 +3635,7 @@
         <v>'Harper Adams University',</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>188</v>
       </c>
@@ -3663,7 +3644,7 @@
         <v>'Heriot-Watt University',</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>307</v>
       </c>
@@ -3672,7 +3653,7 @@
         <v>'Heythrop College',</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>189</v>
       </c>
@@ -3681,7 +3662,7 @@
         <v>'Imperial College London',</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>308</v>
       </c>
@@ -3690,7 +3671,7 @@
         <v>'Institute of Cancer Research',</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>309</v>
       </c>
@@ -3699,7 +3680,7 @@
         <v>'Institute of Education',</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>310</v>
       </c>
@@ -3708,7 +3689,7 @@
         <v>'King's College London',</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="22" t="s">
         <v>190</v>
       </c>
@@ -3717,7 +3698,7 @@
         <v>'Kingston University',</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
         <v>191</v>
       </c>
@@ -3726,7 +3707,7 @@
         <v>'Leeds Beckett University',</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
         <v>192</v>
       </c>
@@ -3735,7 +3716,7 @@
         <v>'Leeds College of Art',</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
         <v>193</v>
       </c>
@@ -3744,7 +3725,7 @@
         <v>'Leeds Trinity University',</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
         <v>194</v>
       </c>
@@ -3753,7 +3734,7 @@
         <v>'Liverpool Hope University',</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
         <v>195</v>
       </c>
@@ -3762,7 +3743,7 @@
         <v>'Liverpool John Moores University',</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>311</v>
       </c>
@@ -3771,7 +3752,7 @@
         <v>'London Business School',</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
         <v>196</v>
       </c>
@@ -3780,7 +3761,7 @@
         <v>'London Metropolitan University',</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>312</v>
       </c>
@@ -3789,7 +3770,7 @@
         <v>'London School of Economics',</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>313</v>
       </c>
@@ -3798,7 +3779,7 @@
         <v>'London School of Hygiene and Tropical Medicine',</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>197</v>
       </c>
@@ -3807,7 +3788,7 @@
         <v>'London South Bank University',</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>198</v>
       </c>
@@ -3816,7 +3797,7 @@
         <v>'Loughborough University',</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
         <v>199</v>
       </c>
@@ -3825,7 +3806,7 @@
         <v>'Manchester Metropolitan University',</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
         <v>200</v>
       </c>
@@ -3834,7 +3815,7 @@
         <v>'Middlesex University',</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="22" t="s">
         <v>201</v>
       </c>
@@ -3843,7 +3824,7 @@
         <v>'Newman University',</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>202</v>
       </c>
@@ -3852,7 +3833,7 @@
         <v>'Northumbria University',</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
         <v>203</v>
       </c>
@@ -3861,7 +3842,7 @@
         <v>'Norwich University of the Arts',</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
         <v>204</v>
       </c>
@@ -3870,7 +3851,7 @@
         <v>'Nottingham Trent University',</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>205</v>
       </c>
@@ -3879,7 +3860,7 @@
         <v>'Open University',</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="22" t="s">
         <v>206</v>
       </c>
@@ -3888,7 +3869,7 @@
         <v>'Oxford Brookes University',</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="22" t="s">
         <v>207</v>
       </c>
@@ -3897,7 +3878,7 @@
         <v>'Queen Margaret University',</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>314</v>
       </c>
@@ -3906,7 +3887,7 @@
         <v>'Queen Mary, University of London',</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>208</v>
       </c>
@@ -3915,7 +3896,7 @@
         <v>'Queen's University Belfast',</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>209</v>
       </c>
@@ -3924,7 +3905,7 @@
         <v>'Ravensbourne',</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>210</v>
       </c>
@@ -3933,7 +3914,7 @@
         <v>'Robert Gordon University',</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>211</v>
       </c>
@@ -3942,16 +3923,16 @@
         <v>'Roehampton University',</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>212</v>
       </c>
       <c r="B67" s="21" t="str">
-        <f t="shared" ref="B67:B71" si="1">CONCATENATE("'",A67,"',")</f>
+        <f t="shared" ref="B67:B72" si="1">CONCATENATE("'",A67,"',")</f>
         <v>'Rose Bruford College',</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
         <v>315</v>
       </c>
@@ -3960,7 +3941,7 @@
         <v>'Royal Academy of Music',</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>213</v>
       </c>
@@ -3969,7 +3950,7 @@
         <v>'Royal Agricultural University',</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="22" t="s">
         <v>214</v>
       </c>
@@ -3978,7 +3959,7 @@
         <v>'Royal College of Art',</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="22" t="s">
         <v>215</v>
       </c>
@@ -3987,16 +3968,16 @@
         <v>'Royal College of Music',</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="22" t="s">
         <v>216</v>
       </c>
       <c r="B72" s="21" t="str">
-        <f>CONCATENATE("'",A72,"',")</f>
+        <f t="shared" si="1"/>
         <v>'Royal Conservatoire of Scotland',</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
         <v>316</v>
       </c>
@@ -4005,7 +3986,7 @@
         <v>'Royal Holloway, University of London',</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="22" t="s">
         <v>217</v>
       </c>
@@ -4014,7 +3995,7 @@
         <v>'Royal Northern College of Music',</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>317</v>
       </c>
@@ -4023,7 +4004,7 @@
         <v>'Royal Veterinary College',</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
         <v>318</v>
       </c>
@@ -4032,7 +4013,7 @@
         <v>'School of Oriental and African Studies',</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="22" t="s">
         <v>218</v>
       </c>
@@ -4041,7 +4022,7 @@
         <v>'Sheffield Hallam University',</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="22" t="s">
         <v>219</v>
       </c>
@@ -4050,7 +4031,7 @@
         <v>'Southampton Solent University',</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>220</v>
       </c>
@@ -4059,7 +4040,7 @@
         <v>'SRUC',</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>319</v>
       </c>
@@ -4068,7 +4049,7 @@
         <v>'St George's Hospital Medical School',</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
         <v>221</v>
       </c>
@@ -4077,7 +4058,7 @@
         <v>'St Mary's University, Twickenham',</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
         <v>222</v>
       </c>
@@ -4086,7 +4067,7 @@
         <v>'Staffordshire University',</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
         <v>223</v>
       </c>
@@ -4095,7 +4076,7 @@
         <v>'Stranmillis University College',</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
         <v>224</v>
       </c>
@@ -4104,7 +4085,7 @@
         <v>'Swansea Metropolitan University',</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
         <v>225</v>
       </c>
@@ -4113,7 +4094,7 @@
         <v>'Swansea University',</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="22" t="s">
         <v>226</v>
       </c>
@@ -4122,7 +4103,7 @@
         <v>'Teesside University',</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="22" t="s">
         <v>227</v>
       </c>
@@ -4131,7 +4112,7 @@
         <v>'The Liverpool Institute for Performing Arts',</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="22" t="s">
         <v>228</v>
       </c>
@@ -4140,7 +4121,7 @@
         <v>'The University of St Andrews',</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="22" t="s">
         <v>229</v>
       </c>
@@ -4149,7 +4130,7 @@
         <v>'Trinity Laban Conservatoire of Music and Dance',</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>320</v>
       </c>
@@ -4158,7 +4139,7 @@
         <v>'UCL School of Pharmacy',</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>230</v>
       </c>
@@ -4167,7 +4148,7 @@
         <v>'Ulster University',</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>231</v>
       </c>
@@ -4176,7 +4157,7 @@
         <v>'University Campus Suffolk',</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>232</v>
       </c>
@@ -4185,7 +4166,7 @@
         <v>'University College Birmingham',</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
         <v>233</v>
       </c>
@@ -4194,7 +4175,7 @@
         <v>'University College London',</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>234</v>
       </c>
@@ -4203,7 +4184,7 @@
         <v>'University for the Creative Arts',</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>235</v>
       </c>
@@ -4212,7 +4193,7 @@
         <v>'University of Aberdeen',</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>236</v>
       </c>
@@ -4221,7 +4202,7 @@
         <v>'University of Abertay Dundee',</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>237</v>
       </c>
@@ -4230,7 +4211,7 @@
         <v>'University of Bath',</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
         <v>238</v>
       </c>
@@ -4239,7 +4220,7 @@
         <v>'University of Bedfordshire',</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>239</v>
       </c>
@@ -4248,7 +4229,7 @@
         <v>'University of Birmingham',</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>240</v>
       </c>
@@ -4257,7 +4238,7 @@
         <v>'University of Bolton',</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
         <v>241</v>
       </c>
@@ -4266,7 +4247,7 @@
         <v>'University of Bradford',</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="22" t="s">
         <v>242</v>
       </c>
@@ -4275,7 +4256,7 @@
         <v>'University of Brighton',</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="22" t="s">
         <v>243</v>
       </c>
@@ -4284,7 +4265,7 @@
         <v>'University of Bristol',</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="22" t="s">
         <v>244</v>
       </c>
@@ -4293,7 +4274,7 @@
         <v>'University of Buckingham',</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="22" t="s">
         <v>245</v>
       </c>
@@ -4302,7 +4283,7 @@
         <v>'University of Cambridge',</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="22" t="s">
         <v>246</v>
       </c>
@@ -4311,7 +4292,7 @@
         <v>'University of Central Lancashire',</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="22" t="s">
         <v>247</v>
       </c>
@@ -4320,7 +4301,7 @@
         <v>'University of Chester',</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="22" t="s">
         <v>248</v>
       </c>
@@ -4329,7 +4310,7 @@
         <v>'University of Chichester',</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="22" t="s">
         <v>249</v>
       </c>
@@ -4338,7 +4319,7 @@
         <v>'University of Cumbria',</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="22" t="s">
         <v>250</v>
       </c>
@@ -4347,7 +4328,7 @@
         <v>'University of Derby',</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="22" t="s">
         <v>251</v>
       </c>
@@ -4356,7 +4337,7 @@
         <v>'University of Dundee',</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="22" t="s">
         <v>252</v>
       </c>
@@ -4365,7 +4346,7 @@
         <v>'University of Durham',</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="22" t="s">
         <v>253</v>
       </c>
@@ -4374,7 +4355,7 @@
         <v>'University of East Anglia',</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="22" t="s">
         <v>254</v>
       </c>
@@ -4383,7 +4364,7 @@
         <v>'University of East London',</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="22" t="s">
         <v>255</v>
       </c>
@@ -4392,7 +4373,7 @@
         <v>'University of Edinburgh',</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="22" t="s">
         <v>256</v>
       </c>
@@ -4401,7 +4382,7 @@
         <v>'University of Essex',</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
         <v>257</v>
       </c>
@@ -4410,7 +4391,7 @@
         <v>'University of Exeter',</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
         <v>258</v>
       </c>
@@ -4419,7 +4400,7 @@
         <v>'University of Glasgow',</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="22" t="s">
         <v>259</v>
       </c>
@@ -4428,7 +4409,7 @@
         <v>'University of Gloucestershire',</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="22" t="s">
         <v>260</v>
       </c>
@@ -4437,7 +4418,7 @@
         <v>'University of Greenwich',</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
         <v>261</v>
       </c>
@@ -4446,7 +4427,7 @@
         <v>'University of Hertfordshire',</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
         <v>262</v>
       </c>
@@ -4455,7 +4436,7 @@
         <v>'University of Huddersfield',</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
         <v>263</v>
       </c>
@@ -4464,7 +4445,7 @@
         <v>'University of Hull',</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="22" t="s">
         <v>264</v>
       </c>
@@ -4473,7 +4454,7 @@
         <v>'University of Keele',</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
         <v>265</v>
       </c>
@@ -4482,7 +4463,7 @@
         <v>'University of Kent',</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="22" t="s">
         <v>266</v>
       </c>
@@ -4491,7 +4472,7 @@
         <v>'University of Lancaster',</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
         <v>267</v>
       </c>
@@ -4500,7 +4481,7 @@
         <v>'University of Leeds',</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="22" t="s">
         <v>268</v>
       </c>
@@ -4509,7 +4490,7 @@
         <v>'University of Leicester',</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
         <v>269</v>
       </c>
@@ -4518,7 +4499,7 @@
         <v>'University of Lincoln',</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
         <v>270</v>
       </c>
@@ -4527,7 +4508,7 @@
         <v>'University of Liverpool',</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
         <v>321</v>
       </c>
@@ -4536,7 +4517,7 @@
         <v>'University of London[a]',</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
         <v>271</v>
       </c>
@@ -4545,7 +4526,7 @@
         <v>'University of Manchester',</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
         <v>272</v>
       </c>
@@ -4554,7 +4535,7 @@
         <v>'University of Newcastle',</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
         <v>273</v>
       </c>
@@ -4563,7 +4544,7 @@
         <v>'University of Northampton',</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
         <v>274</v>
       </c>
@@ -4572,7 +4553,7 @@
         <v>'University of Nottingham',</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
         <v>275</v>
       </c>
@@ -4581,7 +4562,7 @@
         <v>'University of Oxford',</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
         <v>276</v>
       </c>
@@ -4590,7 +4571,7 @@
         <v>'University of Plymouth',</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
         <v>277</v>
       </c>
@@ -4599,7 +4580,7 @@
         <v>'University of Portsmouth',</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
         <v>278</v>
       </c>
@@ -4608,7 +4589,7 @@
         <v>'University of Reading',</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
         <v>279</v>
       </c>
@@ -4617,7 +4598,7 @@
         <v>'University of Salford',</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
         <v>280</v>
       </c>
@@ -4626,7 +4607,7 @@
         <v>'University of Sheffield',</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
         <v>281</v>
       </c>
@@ -4635,7 +4616,7 @@
         <v>'University of South Wales',</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
         <v>282</v>
       </c>
@@ -4644,7 +4625,7 @@
         <v>'University of Southampton',</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
         <v>283</v>
       </c>
@@ -4653,7 +4634,7 @@
         <v>'University of St Mark and St John',</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
         <v>284</v>
       </c>
@@ -4662,7 +4643,7 @@
         <v>'University of Stirling',</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="22" t="s">
         <v>285</v>
       </c>
@@ -4671,7 +4652,7 @@
         <v>'University of Strathclyde',</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
         <v>286</v>
       </c>
@@ -4680,7 +4661,7 @@
         <v>'University of Sunderland',</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="22" t="s">
         <v>287</v>
       </c>
@@ -4689,7 +4670,7 @@
         <v>'University of Surrey',</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="22" t="s">
         <v>288</v>
       </c>
@@ -4698,7 +4679,7 @@
         <v>'University of Sussex',</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="22" t="s">
         <v>289</v>
       </c>
@@ -4707,7 +4688,7 @@
         <v>'University of the Arts London',</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
         <v>290</v>
       </c>
@@ -4716,7 +4697,7 @@
         <v>'University of the Highlands and Islands',</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="22" t="s">
         <v>291</v>
       </c>
@@ -4725,7 +4706,7 @@
         <v>'University of the West of England',</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="22" t="s">
         <v>292</v>
       </c>
@@ -4734,7 +4715,7 @@
         <v>'University of the West of Scotland',</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="22" t="s">
         <v>293</v>
       </c>
@@ -4743,7 +4724,7 @@
         <v>'University of Wales, Trinity Saint David',</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="22" t="s">
         <v>294</v>
       </c>
@@ -4752,7 +4733,7 @@
         <v>'University of Warwick',</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="22" t="s">
         <v>295</v>
       </c>
@@ -4761,7 +4742,7 @@
         <v>'University of West London',</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="22" t="s">
         <v>296</v>
       </c>
@@ -4770,7 +4751,7 @@
         <v>'University of Westminster',</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="22" t="s">
         <v>297</v>
       </c>
@@ -4779,7 +4760,7 @@
         <v>'University of Winchester',</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="22" t="s">
         <v>298</v>
       </c>
@@ -4788,7 +4769,7 @@
         <v>'University of Wolverhampton',</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="22" t="s">
         <v>299</v>
       </c>
@@ -4797,7 +4778,7 @@
         <v>'University of Worcester',</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="22" t="s">
         <v>300</v>
       </c>
@@ -4806,7 +4787,7 @@
         <v>'University of York',</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="22" t="s">
         <v>301</v>
       </c>
@@ -4815,7 +4796,7 @@
         <v>'Writtle College',</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="22" t="s">
         <v>302</v>
       </c>
@@ -4827,11 +4808,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4843,9 +4819,9 @@
       <selection activeCell="B95" sqref="B1:B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>322</v>
       </c>
@@ -4854,7 +4830,7 @@
         <v>'Akan',</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>323</v>
       </c>
@@ -4863,7 +4839,7 @@
         <v>'Amharic',</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>324</v>
       </c>
@@ -4872,7 +4848,7 @@
         <v>'Arabic',</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -4881,7 +4857,7 @@
         <v>'Assamese',</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>326</v>
       </c>
@@ -4890,7 +4866,7 @@
         <v>'Awadhi',</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>327</v>
       </c>
@@ -4899,7 +4875,7 @@
         <v>'Azerbaijani',</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>328</v>
       </c>
@@ -4908,7 +4884,7 @@
         <v>'Balochi',</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>329</v>
       </c>
@@ -4917,7 +4893,7 @@
         <v>'Belarusian',</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>330</v>
       </c>
@@ -4926,7 +4902,7 @@
         <v>'Bengali',</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>331</v>
       </c>
@@ -4935,7 +4911,7 @@
         <v>'Bhojpuri',</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -4944,7 +4920,7 @@
         <v>'Burmese',</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>333</v>
       </c>
@@ -4953,7 +4929,7 @@
         <v>'Cantonese',</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>334</v>
       </c>
@@ -4962,7 +4938,7 @@
         <v>'Cebuano',</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>335</v>
       </c>
@@ -4971,7 +4947,7 @@
         <v>'Chewa',</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>336</v>
       </c>
@@ -4980,7 +4956,7 @@
         <v>'Chhattisgarhi',</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -4989,7 +4965,7 @@
         <v>'Chittagonian',</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>338</v>
       </c>
@@ -4998,7 +4974,7 @@
         <v>'Czech',</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>339</v>
       </c>
@@ -5007,7 +4983,7 @@
         <v>'Deccan',</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>340</v>
       </c>
@@ -5016,7 +4992,7 @@
         <v>'Dhundhari',</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>341</v>
       </c>
@@ -5025,7 +5001,7 @@
         <v>'Dutch',</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -5034,7 +5010,7 @@
         <v>'Fula',</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>343</v>
       </c>
@@ -5043,7 +5019,7 @@
         <v>'Gan',</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>344</v>
       </c>
@@ -5052,7 +5028,7 @@
         <v>'Greek',</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>345</v>
       </c>
@@ -5061,7 +5037,7 @@
         <v>'Gujarati',</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>346</v>
       </c>
@@ -5070,7 +5046,7 @@
         <v>'Haitian Creole',</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>347</v>
       </c>
@@ -5079,7 +5055,7 @@
         <v>'Hakka',</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>348</v>
       </c>
@@ -5088,7 +5064,7 @@
         <v>'Haryanvi',</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>349</v>
       </c>
@@ -5097,7 +5073,7 @@
         <v>'Hausa',</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>350</v>
       </c>
@@ -5106,7 +5082,7 @@
         <v>'Hiligaynon',</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>351</v>
       </c>
@@ -5115,7 +5091,7 @@
         <v>'Hindi',</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>352</v>
       </c>
@@ -5124,7 +5100,7 @@
         <v>'Hmong',</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>353</v>
       </c>
@@ -5133,7 +5109,7 @@
         <v>'Hungarian',</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>354</v>
       </c>
@@ -5142,7 +5118,7 @@
         <v>'Igbo',</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>355</v>
       </c>
@@ -5151,7 +5127,7 @@
         <v>'Ilokano',</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>356</v>
       </c>
@@ -5160,7 +5136,7 @@
         <v>'Italian',</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>357</v>
       </c>
@@ -5169,7 +5145,7 @@
         <v>'Japanese',</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>358</v>
       </c>
@@ -5178,7 +5154,7 @@
         <v>'Javanese',</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>359</v>
       </c>
@@ -5187,7 +5163,7 @@
         <v>'Jin',</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>360</v>
       </c>
@@ -5196,7 +5172,7 @@
         <v>'Kannada',</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>361</v>
       </c>
@@ -5205,7 +5181,7 @@
         <v>'Kazakh',</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>362</v>
       </c>
@@ -5214,7 +5190,7 @@
         <v>'Khmer',</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>363</v>
       </c>
@@ -5223,7 +5199,7 @@
         <v>'Kinyarwanda',</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>364</v>
       </c>
@@ -5232,7 +5208,7 @@
         <v>'Kirundi',</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>365</v>
       </c>
@@ -5241,7 +5217,7 @@
         <v>'Konkani',</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>366</v>
       </c>
@@ -5250,7 +5226,7 @@
         <v>'Korean',</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>367</v>
       </c>
@@ -5259,7 +5235,7 @@
         <v>'Kurdish',</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>368</v>
       </c>
@@ -5268,7 +5244,7 @@
         <v>'Madurese',</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>369</v>
       </c>
@@ -5277,7 +5253,7 @@
         <v>'Magahi',</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>370</v>
       </c>
@@ -5286,7 +5262,7 @@
         <v>'Maithili',</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>371</v>
       </c>
@@ -5295,7 +5271,7 @@
         <v>'Malagasy',</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>372</v>
       </c>
@@ -5304,7 +5280,7 @@
         <v>'Malay/Indonesian',</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>373</v>
       </c>
@@ -5313,7 +5289,7 @@
         <v>'Malayalam',</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>374</v>
       </c>
@@ -5322,7 +5298,7 @@
         <v>'Marathi',</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>375</v>
       </c>
@@ -5331,7 +5307,7 @@
         <v>'Marwari',</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>376</v>
       </c>
@@ -5340,7 +5316,7 @@
         <v>'Min Bei',</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>377</v>
       </c>
@@ -5349,7 +5325,7 @@
         <v>'Min Dong',</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>378</v>
       </c>
@@ -5358,7 +5334,7 @@
         <v>'Min Nan',</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>379</v>
       </c>
@@ -5367,7 +5343,7 @@
         <v>'Mossi',</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>380</v>
       </c>
@@ -5376,7 +5352,7 @@
         <v>'Nepali',</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -5385,7 +5361,7 @@
         <v>'Odia',</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>382</v>
       </c>
@@ -5394,7 +5370,7 @@
         <v>'Oromo',</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>383</v>
       </c>
@@ -5403,7 +5379,7 @@
         <v>'Pashto',</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>384</v>
       </c>
@@ -5412,7 +5388,7 @@
         <v>'Persian',</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>385</v>
       </c>
@@ -5421,7 +5397,7 @@
         <v>'Polish',</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -5430,7 +5406,7 @@
         <v>'Portuguese',</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>387</v>
       </c>
@@ -5439,7 +5415,7 @@
         <v>'Punjabi',</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>388</v>
       </c>
@@ -5448,7 +5424,7 @@
         <v>'Quechua',</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>389</v>
       </c>
@@ -5457,7 +5433,7 @@
         <v>'Romanian',</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>390</v>
       </c>
@@ -5466,7 +5442,7 @@
         <v>'Russian',</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>391</v>
       </c>
@@ -5475,7 +5451,7 @@
         <v>'Saraiki',</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>392</v>
       </c>
@@ -5484,7 +5460,7 @@
         <v>'Serbo-Croatian',</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>393</v>
       </c>
@@ -5493,7 +5469,7 @@
         <v>'Shona',</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>394</v>
       </c>
@@ -5502,7 +5478,7 @@
         <v>'Sindhi',</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>395</v>
       </c>
@@ -5511,7 +5487,7 @@
         <v>'Sinhalese',</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>396</v>
       </c>
@@ -5520,7 +5496,7 @@
         <v>'Somali',</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>397</v>
       </c>
@@ -5529,7 +5505,7 @@
         <v>'Sundanese',</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>398</v>
       </c>
@@ -5538,7 +5514,7 @@
         <v>'Swedish',</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>399</v>
       </c>
@@ -5547,7 +5523,7 @@
         <v>'Sylheti',</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>400</v>
       </c>
@@ -5556,7 +5532,7 @@
         <v>'Tagalog',</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>401</v>
       </c>
@@ -5565,7 +5541,7 @@
         <v>'Tamil',</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>402</v>
       </c>
@@ -5574,7 +5550,7 @@
         <v>'Telugu',</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>403</v>
       </c>
@@ -5583,7 +5559,7 @@
         <v>'Thai',</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>404</v>
       </c>
@@ -5592,7 +5568,7 @@
         <v>'Turkish',</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>405</v>
       </c>
@@ -5601,7 +5577,7 @@
         <v>'Turkmen',</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>406</v>
       </c>
@@ -5610,7 +5586,7 @@
         <v>'Ukrainian',</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -5619,7 +5595,7 @@
         <v>'Urdu',</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -5628,7 +5604,7 @@
         <v>'Uyghur',</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>409</v>
       </c>
@@ -5637,7 +5613,7 @@
         <v>'Uzbek',</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>410</v>
       </c>
@@ -5646,7 +5622,7 @@
         <v>'Vietnamese',</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>411</v>
       </c>
@@ -5655,7 +5631,7 @@
         <v>'Wu',</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>412</v>
       </c>
@@ -5664,7 +5640,7 @@
         <v>'Xhosa',</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>413</v>
       </c>
@@ -5673,7 +5649,7 @@
         <v>'Xiang',</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>414</v>
       </c>
@@ -5682,7 +5658,7 @@
         <v>'Yoruba',</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -5691,7 +5667,7 @@
         <v>'Zhuang',</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>416</v>
       </c>
@@ -5703,10 +5679,17 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>